--- a/node解析xlsx示例代码/test.xlsx
+++ b/node解析xlsx示例代码/test.xlsx
@@ -3,6 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <sheets>
+    <sheet sheetId="1" name="my Sheet" state="visible" r:id="rId3"/>
+  </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
@@ -375,4 +378,40 @@
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F1:F5"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
 </file>